--- a/priv/statistics/ora_bench_status_1.1.0_std_vm.xlsx
+++ b/priv/statistics/ora_bench_status_1.1.0_std_vm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5281E-7569-4B64-BDEC-4ACA22577048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5165BDF-77B0-4FFF-8057-1BB668A0B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -341,24 +341,24 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -678,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192CCCE-8A84-4ABC-BAEB-FE6F2C6D1859}">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,138 +694,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="25" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="24" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="25" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="24" t="s">
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="25" t="s">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="25" t="s">
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
     </row>
     <row r="2" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="24" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="25" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="24" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="24" t="s">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="25" t="s">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="26"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="33"/>
     </row>
     <row r="3" spans="1:43" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -959,1256 +959,436 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="27">
         <v>0</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="27">
         <v>0</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30">
-        <v>2336</v>
-      </c>
-      <c r="I4" s="30">
-        <v>3025</v>
-      </c>
-      <c r="J4" s="30">
-        <v>2546</v>
-      </c>
-      <c r="K4" s="30">
-        <v>30072</v>
-      </c>
-      <c r="L4" s="31">
-        <v>2198</v>
-      </c>
-      <c r="M4" s="31">
-        <v>4934</v>
-      </c>
-      <c r="N4" s="31">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
+        <v>2737</v>
+      </c>
+      <c r="I4" s="25">
+        <v>3285</v>
+      </c>
+      <c r="J4" s="25">
+        <v>2870</v>
+      </c>
+      <c r="K4" s="25">
+        <v>33329</v>
+      </c>
+      <c r="L4" s="26">
+        <v>2260</v>
+      </c>
+      <c r="M4" s="26">
         <v>2814</v>
       </c>
-      <c r="O4" s="31">
-        <v>130123</v>
-      </c>
-      <c r="P4" s="30">
-        <v>1692</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>2099</v>
-      </c>
-      <c r="R4" s="30">
-        <v>1793</v>
-      </c>
-      <c r="S4" s="30">
-        <v>18036</v>
-      </c>
-      <c r="T4" s="31">
-        <v>1777</v>
-      </c>
-      <c r="U4" s="31">
-        <v>2347</v>
-      </c>
-      <c r="V4" s="31">
-        <v>1862</v>
-      </c>
-      <c r="W4" s="31">
-        <v>19851</v>
-      </c>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="31">
-        <v>2715</v>
-      </c>
-      <c r="AC4" s="31">
-        <v>3321</v>
-      </c>
-      <c r="AD4" s="33">
-        <v>2838</v>
-      </c>
-      <c r="AE4" s="31">
-        <v>45208</v>
-      </c>
-      <c r="AF4" s="30">
-        <v>1700</v>
-      </c>
-      <c r="AG4" s="30">
-        <v>1947</v>
-      </c>
-      <c r="AH4" s="33">
-        <v>1778</v>
-      </c>
-      <c r="AI4" s="30">
-        <v>18775</v>
-      </c>
-      <c r="AJ4" s="31">
-        <v>1953</v>
-      </c>
-      <c r="AK4" s="31">
-        <v>2070</v>
-      </c>
-      <c r="AL4" s="31">
-        <v>2003</v>
-      </c>
-      <c r="AM4" s="31">
-        <v>21310</v>
-      </c>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
+      <c r="N4" s="26">
+        <v>2606</v>
+      </c>
+      <c r="O4" s="26">
+        <v>123851</v>
+      </c>
+      <c r="P4" s="25">
+        <v>1710</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>2222</v>
+      </c>
+      <c r="R4" s="25">
+        <v>1839</v>
+      </c>
+      <c r="S4" s="25">
+        <v>18495</v>
+      </c>
+      <c r="T4" s="26">
+        <v>1872</v>
+      </c>
+      <c r="U4" s="26">
+        <v>2465</v>
+      </c>
+      <c r="V4" s="26">
+        <v>1973</v>
+      </c>
+      <c r="W4" s="26">
+        <v>20988</v>
+      </c>
+      <c r="X4" s="25">
+        <v>62997</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>67205</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>64820</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>660189</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>2878</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>3589</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>2988</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>40592</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>1754</v>
+      </c>
+      <c r="AG4" s="25">
+        <v>2046</v>
+      </c>
+      <c r="AH4" s="25">
+        <v>1840</v>
+      </c>
+      <c r="AI4" s="25">
+        <v>19407</v>
+      </c>
+      <c r="AJ4" s="26">
+        <v>1978</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>2185</v>
+      </c>
+      <c r="AL4" s="26">
+        <v>2043</v>
+      </c>
+      <c r="AM4" s="26">
+        <v>21090</v>
+      </c>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="27">
         <v>0</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="C5" s="32">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25">
+        <v>2754</v>
+      </c>
+      <c r="I5" s="25">
+        <v>2928</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2848</v>
+      </c>
+      <c r="K5" s="25">
+        <v>33290</v>
+      </c>
+      <c r="L5" s="26">
+        <v>2513</v>
+      </c>
+      <c r="M5" s="26">
+        <v>2845</v>
+      </c>
+      <c r="N5" s="26">
+        <v>2697</v>
+      </c>
+      <c r="O5" s="26">
+        <v>126912</v>
+      </c>
+      <c r="P5" s="25">
+        <v>859</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>3959</v>
+      </c>
+      <c r="R5" s="25">
+        <v>1240</v>
+      </c>
+      <c r="S5" s="25">
+        <v>12497</v>
+      </c>
+      <c r="T5" s="26">
+        <v>859</v>
+      </c>
+      <c r="U5" s="26">
+        <v>1566</v>
+      </c>
+      <c r="V5" s="28">
+        <v>968</v>
+      </c>
+      <c r="W5" s="26">
+        <v>10890</v>
+      </c>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="25">
+        <v>1823</v>
+      </c>
+      <c r="AG5" s="25">
+        <v>2104</v>
+      </c>
+      <c r="AH5" s="25">
+        <v>1902</v>
+      </c>
+      <c r="AI5" s="25">
+        <v>20024</v>
+      </c>
+      <c r="AJ5" s="26">
+        <v>958</v>
+      </c>
+      <c r="AK5" s="26">
+        <v>1114</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>1033</v>
+      </c>
+      <c r="AM5" s="26">
+        <v>10998</v>
+      </c>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>512</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30">
-        <v>2518</v>
-      </c>
-      <c r="I5" s="30">
-        <v>2983</v>
-      </c>
-      <c r="J5" s="30">
-        <v>2721</v>
-      </c>
-      <c r="K5" s="30">
-        <v>31826</v>
-      </c>
-      <c r="L5" s="31">
-        <v>2372</v>
-      </c>
-      <c r="M5" s="31">
-        <v>2879</v>
-      </c>
-      <c r="N5" s="31">
-        <v>2578</v>
-      </c>
-      <c r="O5" s="31">
-        <v>126824</v>
-      </c>
-      <c r="P5" s="30">
-        <v>1660</v>
-      </c>
-      <c r="Q5" s="30">
-        <v>2202</v>
-      </c>
-      <c r="R5" s="30">
-        <v>1784</v>
-      </c>
-      <c r="S5" s="30">
-        <v>17936</v>
-      </c>
-      <c r="T5" s="31">
-        <v>1810</v>
-      </c>
-      <c r="U5" s="31">
-        <v>2441</v>
-      </c>
-      <c r="V5" s="31">
-        <v>1943</v>
-      </c>
-      <c r="W5" s="31">
-        <v>20660</v>
-      </c>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="31">
-        <v>2779</v>
-      </c>
-      <c r="AC5" s="31">
-        <v>3546</v>
-      </c>
-      <c r="AD5" s="31">
-        <v>2917</v>
-      </c>
-      <c r="AE5" s="31">
-        <v>46387</v>
-      </c>
-      <c r="AF5" s="30">
-        <v>1752</v>
-      </c>
-      <c r="AG5" s="30">
-        <v>1975</v>
-      </c>
-      <c r="AH5" s="30">
-        <v>1825</v>
-      </c>
-      <c r="AI5" s="30">
-        <v>19248</v>
-      </c>
-      <c r="AJ5" s="31">
-        <v>1919</v>
-      </c>
-      <c r="AK5" s="31">
-        <v>2097</v>
-      </c>
-      <c r="AL5" s="31">
-        <v>2002</v>
-      </c>
-      <c r="AM5" s="31">
-        <v>21291</v>
-      </c>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="C6" s="27">
+        <v>512</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
+        <v>3004</v>
+      </c>
+      <c r="I6" s="25">
+        <v>3212</v>
+      </c>
+      <c r="J6" s="25">
+        <v>3122</v>
+      </c>
+      <c r="K6" s="25">
+        <v>36047</v>
+      </c>
+      <c r="L6" s="26">
+        <v>1779</v>
+      </c>
+      <c r="M6" s="26">
+        <v>4290</v>
+      </c>
+      <c r="N6" s="26">
+        <v>2539</v>
+      </c>
+      <c r="O6" s="26">
+        <v>122950</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1737</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>1931</v>
+      </c>
+      <c r="R6" s="25">
+        <v>1811</v>
+      </c>
+      <c r="S6" s="25">
+        <v>18200</v>
+      </c>
+      <c r="T6" s="26">
+        <v>2162</v>
+      </c>
+      <c r="U6" s="26">
+        <v>2861</v>
+      </c>
+      <c r="V6" s="26">
+        <v>2272</v>
+      </c>
+      <c r="W6" s="26">
+        <v>23882</v>
+      </c>
+      <c r="X6" s="25">
+        <v>62278</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>66080</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>64282</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>654850</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>3341</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>3957</v>
+      </c>
+      <c r="AD6" s="26">
+        <v>3446</v>
+      </c>
+      <c r="AE6" s="26">
+        <v>45086</v>
+      </c>
+      <c r="AF6" s="25">
+        <v>2081</v>
+      </c>
+      <c r="AG6" s="25">
+        <v>2396</v>
+      </c>
+      <c r="AH6" s="25">
+        <v>2160</v>
+      </c>
+      <c r="AI6" s="25">
+        <v>22639</v>
+      </c>
+      <c r="AJ6" s="26">
+        <v>2290</v>
+      </c>
+      <c r="AK6" s="26">
+        <v>2496</v>
+      </c>
+      <c r="AL6" s="26">
+        <v>2359</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>24251</v>
+      </c>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>512</v>
+      </c>
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="32">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30">
-        <v>2511</v>
-      </c>
-      <c r="I6" s="30">
-        <v>2774</v>
-      </c>
-      <c r="J6" s="30">
-        <v>2639</v>
-      </c>
-      <c r="K6" s="30">
-        <v>31237</v>
-      </c>
-      <c r="L6" s="31">
-        <v>2208</v>
-      </c>
-      <c r="M6" s="31">
-        <v>5368</v>
-      </c>
-      <c r="N6" s="31">
-        <v>2778</v>
-      </c>
-      <c r="O6" s="31">
-        <v>127956</v>
-      </c>
-      <c r="P6" s="30">
-        <v>832</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>1108</v>
-      </c>
-      <c r="R6" s="33">
-        <v>908</v>
-      </c>
-      <c r="S6" s="30">
-        <v>9172</v>
-      </c>
-      <c r="T6" s="31">
-        <v>837</v>
-      </c>
-      <c r="U6" s="31">
-        <v>3893</v>
-      </c>
-      <c r="V6" s="31">
-        <v>1260</v>
-      </c>
-      <c r="W6" s="31">
-        <v>13814</v>
-      </c>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="30">
-        <v>1744</v>
-      </c>
-      <c r="AG6" s="30">
-        <v>1966</v>
-      </c>
-      <c r="AH6" s="30">
-        <v>1794</v>
-      </c>
-      <c r="AI6" s="30">
-        <v>18961</v>
-      </c>
-      <c r="AJ6" s="31">
-        <v>937</v>
-      </c>
-      <c r="AK6" s="31">
-        <v>1140</v>
-      </c>
-      <c r="AL6" s="31">
-        <v>1008</v>
-      </c>
-      <c r="AM6" s="31">
-        <v>11380</v>
-      </c>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>0</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="C7" s="27">
         <v>512</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30">
-        <v>2591</v>
-      </c>
-      <c r="I7" s="30">
-        <v>3088</v>
-      </c>
-      <c r="J7" s="30">
-        <v>2832</v>
-      </c>
-      <c r="K7" s="30">
-        <v>33248</v>
-      </c>
-      <c r="L7" s="31">
-        <v>2484</v>
-      </c>
-      <c r="M7" s="31">
-        <v>3718</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2708</v>
-      </c>
-      <c r="O7" s="31">
-        <v>128789</v>
-      </c>
-      <c r="P7" s="30">
-        <v>825</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>2634</v>
-      </c>
-      <c r="R7" s="30">
-        <v>1071</v>
-      </c>
-      <c r="S7" s="30">
-        <v>10804</v>
-      </c>
-      <c r="T7" s="31">
-        <v>806</v>
-      </c>
-      <c r="U7" s="31">
-        <v>1924</v>
-      </c>
-      <c r="V7" s="33">
-        <v>1032</v>
-      </c>
-      <c r="W7" s="31">
-        <v>11538</v>
-      </c>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="30">
-        <v>1853</v>
-      </c>
-      <c r="AG7" s="30">
-        <v>2081</v>
-      </c>
-      <c r="AH7" s="30">
-        <v>1907</v>
-      </c>
-      <c r="AI7" s="30">
-        <v>20111</v>
-      </c>
-      <c r="AJ7" s="31">
-        <v>933</v>
-      </c>
-      <c r="AK7" s="31">
-        <v>1026</v>
-      </c>
-      <c r="AL7" s="33">
-        <v>983</v>
-      </c>
-      <c r="AM7" s="31">
-        <v>11118</v>
-      </c>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32">
-        <v>0</v>
-      </c>
-      <c r="C8" s="32">
-        <v>0</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30">
-        <v>18966</v>
-      </c>
-      <c r="I8" s="30">
-        <v>27789</v>
-      </c>
-      <c r="J8" s="30">
-        <v>23472</v>
-      </c>
-      <c r="K8" s="30">
-        <v>239585</v>
-      </c>
-      <c r="L8" s="31">
-        <v>7517</v>
-      </c>
-      <c r="M8" s="31">
-        <v>7755</v>
-      </c>
-      <c r="N8" s="31">
-        <v>7648</v>
-      </c>
-      <c r="O8" s="31">
-        <v>175864</v>
-      </c>
-      <c r="P8" s="30">
-        <v>1683</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>1979</v>
-      </c>
-      <c r="R8" s="30">
-        <v>1762</v>
-      </c>
-      <c r="S8" s="30">
-        <v>17717</v>
-      </c>
-      <c r="T8" s="31">
-        <v>18871</v>
-      </c>
-      <c r="U8" s="31">
-        <v>21644</v>
-      </c>
-      <c r="V8" s="31">
-        <v>20124</v>
-      </c>
-      <c r="W8" s="31">
-        <v>202422</v>
-      </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="31">
-        <v>21426</v>
-      </c>
-      <c r="AC8" s="31">
-        <v>24637</v>
-      </c>
-      <c r="AD8" s="31">
-        <v>22938</v>
-      </c>
-      <c r="AE8" s="31">
-        <v>246924</v>
-      </c>
-      <c r="AF8" s="30">
-        <v>17568</v>
-      </c>
-      <c r="AG8" s="30">
-        <v>22644</v>
-      </c>
-      <c r="AH8" s="30">
-        <v>19611</v>
-      </c>
-      <c r="AI8" s="30">
-        <v>197173</v>
-      </c>
-      <c r="AJ8" s="31">
-        <v>19040</v>
-      </c>
-      <c r="AK8" s="31">
-        <v>21434</v>
-      </c>
-      <c r="AL8" s="31">
-        <v>20308</v>
-      </c>
-      <c r="AM8" s="31">
-        <v>204383</v>
-      </c>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32">
-        <v>0</v>
-      </c>
-      <c r="C9" s="32">
-        <v>512</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30">
-        <v>21074</v>
-      </c>
-      <c r="I9" s="30">
-        <v>27980</v>
-      </c>
-      <c r="J9" s="30">
-        <v>24847</v>
-      </c>
-      <c r="K9" s="30">
-        <v>253286</v>
-      </c>
-      <c r="L9" s="31">
-        <v>7453</v>
-      </c>
-      <c r="M9" s="31">
-        <v>8854</v>
-      </c>
-      <c r="N9" s="31">
-        <v>7960</v>
-      </c>
-      <c r="O9" s="31">
-        <v>177369</v>
-      </c>
-      <c r="P9" s="30">
-        <v>1670</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>1948</v>
-      </c>
-      <c r="R9" s="30">
-        <v>1754</v>
-      </c>
-      <c r="S9" s="30">
-        <v>17633</v>
-      </c>
-      <c r="T9" s="31">
-        <v>18620</v>
-      </c>
-      <c r="U9" s="31">
-        <v>23119</v>
-      </c>
-      <c r="V9" s="31">
-        <v>20011</v>
-      </c>
-      <c r="W9" s="31">
-        <v>201320</v>
-      </c>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="31">
-        <v>21830</v>
-      </c>
-      <c r="AC9" s="31">
-        <v>26148</v>
-      </c>
-      <c r="AD9" s="31">
-        <v>23589</v>
-      </c>
-      <c r="AE9" s="31">
-        <v>252724</v>
-      </c>
-      <c r="AF9" s="30">
-        <v>18954</v>
-      </c>
-      <c r="AG9" s="30">
-        <v>22157</v>
-      </c>
-      <c r="AH9" s="30">
-        <v>20254</v>
-      </c>
-      <c r="AI9" s="30">
-        <v>203550</v>
-      </c>
-      <c r="AJ9" s="31">
-        <v>18629</v>
-      </c>
-      <c r="AK9" s="31">
-        <v>22764</v>
-      </c>
-      <c r="AL9" s="31">
-        <v>20543</v>
-      </c>
-      <c r="AM9" s="31">
-        <v>206760</v>
-      </c>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
-        <v>1</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32">
-        <v>0</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30">
-        <v>21400</v>
-      </c>
-      <c r="I10" s="30">
-        <v>26168</v>
-      </c>
-      <c r="J10" s="30">
-        <v>24345</v>
-      </c>
-      <c r="K10" s="30">
-        <v>248413</v>
-      </c>
-      <c r="L10" s="31">
-        <v>7623</v>
-      </c>
-      <c r="M10" s="31">
-        <v>8415</v>
-      </c>
-      <c r="N10" s="31">
-        <v>7891</v>
-      </c>
-      <c r="O10" s="31">
-        <v>175172</v>
-      </c>
-      <c r="P10" s="30">
-        <v>876</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>3707</v>
-      </c>
-      <c r="R10" s="30">
-        <v>1206</v>
-      </c>
-      <c r="S10" s="30">
-        <v>12152</v>
-      </c>
-      <c r="T10" s="31">
-        <v>6701</v>
-      </c>
-      <c r="U10" s="31">
-        <v>8703</v>
-      </c>
-      <c r="V10" s="31">
-        <v>7191</v>
-      </c>
-      <c r="W10" s="31">
-        <v>73106</v>
-      </c>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="30">
-        <v>23017</v>
-      </c>
-      <c r="AG10" s="30">
-        <v>26544</v>
-      </c>
-      <c r="AH10" s="30">
-        <v>24817</v>
-      </c>
-      <c r="AI10" s="30">
-        <v>249182</v>
-      </c>
-      <c r="AJ10" s="31">
-        <v>7076</v>
-      </c>
-      <c r="AK10" s="31">
-        <v>7514</v>
-      </c>
-      <c r="AL10" s="31">
-        <v>7361</v>
-      </c>
-      <c r="AM10" s="31">
-        <v>74900</v>
-      </c>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>1</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="32">
-        <v>512</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30">
-        <v>23060</v>
-      </c>
-      <c r="I11" s="30">
-        <v>32681</v>
-      </c>
-      <c r="J11" s="30">
-        <v>26620</v>
-      </c>
-      <c r="K11" s="30">
-        <v>271143</v>
-      </c>
-      <c r="L11" s="31">
-        <v>7443</v>
-      </c>
-      <c r="M11" s="31">
-        <v>8033</v>
-      </c>
-      <c r="N11" s="31">
-        <v>7795</v>
-      </c>
-      <c r="O11" s="31">
-        <v>176165</v>
-      </c>
-      <c r="P11" s="30">
-        <v>828</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>1034</v>
-      </c>
-      <c r="R11" s="30">
-        <v>921</v>
-      </c>
-      <c r="S11" s="30">
-        <v>9308</v>
-      </c>
-      <c r="T11" s="31">
-        <v>6651</v>
-      </c>
-      <c r="U11" s="31">
-        <v>7346</v>
-      </c>
-      <c r="V11" s="31">
-        <v>6937</v>
-      </c>
-      <c r="W11" s="31">
-        <v>70534</v>
-      </c>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="30">
-        <v>23317</v>
-      </c>
-      <c r="AG11" s="30">
-        <v>26383</v>
-      </c>
-      <c r="AH11" s="30">
-        <v>25251</v>
-      </c>
-      <c r="AI11" s="30">
-        <v>253523</v>
-      </c>
-      <c r="AJ11" s="31">
-        <v>7174</v>
-      </c>
-      <c r="AK11" s="31">
-        <v>7639</v>
-      </c>
-      <c r="AL11" s="31">
-        <v>7407</v>
-      </c>
-      <c r="AM11" s="31">
-        <v>75359</v>
-      </c>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>512</v>
-      </c>
-      <c r="B12" s="32">
-        <v>0</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30">
-        <v>2068</v>
-      </c>
-      <c r="I12" s="30">
-        <v>2297</v>
-      </c>
-      <c r="J12" s="33">
-        <v>2210</v>
-      </c>
-      <c r="K12" s="30">
-        <v>27003</v>
-      </c>
-      <c r="L12" s="31">
-        <v>1626</v>
-      </c>
-      <c r="M12" s="31">
-        <v>2061</v>
-      </c>
-      <c r="N12" s="33">
-        <v>1942</v>
-      </c>
-      <c r="O12" s="31">
-        <v>118879</v>
-      </c>
-      <c r="P12" s="30">
-        <v>1641</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>1825</v>
-      </c>
-      <c r="R12" s="30">
-        <v>1729</v>
-      </c>
-      <c r="S12" s="30">
-        <v>17392</v>
-      </c>
-      <c r="T12" s="31">
-        <v>1783</v>
-      </c>
-      <c r="U12" s="31">
-        <v>2417</v>
-      </c>
-      <c r="V12" s="31">
-        <v>1892</v>
-      </c>
-      <c r="W12" s="31">
-        <v>20113</v>
-      </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="31">
-        <v>2867</v>
-      </c>
-      <c r="AC12" s="31">
-        <v>3571</v>
-      </c>
-      <c r="AD12" s="31">
-        <v>3013</v>
-      </c>
-      <c r="AE12" s="31">
-        <v>47320</v>
-      </c>
-      <c r="AF12" s="30">
-        <v>1731</v>
-      </c>
-      <c r="AG12" s="30">
-        <v>1971</v>
-      </c>
-      <c r="AH12" s="30">
-        <v>1789</v>
-      </c>
-      <c r="AI12" s="30">
-        <v>18893</v>
-      </c>
-      <c r="AJ12" s="31">
-        <v>1895</v>
-      </c>
-      <c r="AK12" s="31">
-        <v>2127</v>
-      </c>
-      <c r="AL12" s="31">
-        <v>1982</v>
-      </c>
-      <c r="AM12" s="31">
-        <v>21116</v>
-      </c>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>512</v>
-      </c>
-      <c r="B13" s="32">
-        <v>0</v>
-      </c>
-      <c r="C13" s="32">
-        <v>512</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30">
-        <v>2317</v>
-      </c>
-      <c r="I13" s="30">
-        <v>2462</v>
-      </c>
-      <c r="J13" s="30">
-        <v>2404</v>
-      </c>
-      <c r="K13" s="30">
-        <v>28865</v>
-      </c>
-      <c r="L13" s="31">
-        <v>1758</v>
-      </c>
-      <c r="M13" s="31">
-        <v>3082</v>
-      </c>
-      <c r="N13" s="31">
-        <v>2232</v>
-      </c>
-      <c r="O13" s="31">
-        <v>120882</v>
-      </c>
-      <c r="P13" s="30">
-        <v>1660</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>1821</v>
-      </c>
-      <c r="R13" s="30">
-        <v>1724</v>
-      </c>
-      <c r="S13" s="30">
-        <v>17338</v>
-      </c>
-      <c r="T13" s="31">
-        <v>2008</v>
-      </c>
-      <c r="U13" s="31">
-        <v>2602</v>
-      </c>
-      <c r="V13" s="31">
-        <v>2135</v>
-      </c>
-      <c r="W13" s="31">
-        <v>22545</v>
-      </c>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="31">
-        <v>3088</v>
-      </c>
-      <c r="AC13" s="31">
-        <v>3781</v>
-      </c>
-      <c r="AD13" s="31">
-        <v>3184</v>
-      </c>
-      <c r="AE13" s="31">
-        <v>48909</v>
-      </c>
-      <c r="AF13" s="30">
-        <v>1932</v>
-      </c>
-      <c r="AG13" s="30">
-        <v>2185</v>
-      </c>
-      <c r="AH13" s="30">
-        <v>2013</v>
-      </c>
-      <c r="AI13" s="30">
-        <v>21172</v>
-      </c>
-      <c r="AJ13" s="31">
-        <v>2151</v>
-      </c>
-      <c r="AK13" s="31">
-        <v>2366</v>
-      </c>
-      <c r="AL13" s="31">
-        <v>2225</v>
-      </c>
-      <c r="AM13" s="31">
-        <v>23548</v>
-      </c>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>512</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30">
-        <v>2180</v>
-      </c>
-      <c r="I14" s="30">
-        <v>2401</v>
-      </c>
-      <c r="J14" s="30">
-        <v>2262</v>
-      </c>
-      <c r="K14" s="30">
-        <v>27606</v>
-      </c>
-      <c r="L14" s="31">
-        <v>1601</v>
-      </c>
-      <c r="M14" s="31">
-        <v>3727</v>
-      </c>
-      <c r="N14" s="31">
-        <v>2103</v>
-      </c>
-      <c r="O14" s="31">
-        <v>119021</v>
-      </c>
-      <c r="P14" s="30">
-        <v>845</v>
-      </c>
-      <c r="Q14" s="30">
-        <v>1007</v>
-      </c>
-      <c r="R14" s="30">
-        <v>910</v>
-      </c>
-      <c r="S14" s="30">
-        <v>9198</v>
-      </c>
-      <c r="T14" s="31">
-        <v>847</v>
-      </c>
-      <c r="U14" s="31">
-        <v>3685</v>
-      </c>
-      <c r="V14" s="31">
-        <v>1479</v>
-      </c>
-      <c r="W14" s="31">
-        <v>15972</v>
-      </c>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="30">
-        <v>1841</v>
-      </c>
-      <c r="AG14" s="30">
-        <v>4290</v>
-      </c>
-      <c r="AH14" s="30">
-        <v>2148</v>
-      </c>
-      <c r="AI14" s="30">
-        <v>22480</v>
-      </c>
-      <c r="AJ14" s="31">
-        <v>893</v>
-      </c>
-      <c r="AK14" s="31">
-        <v>3714</v>
-      </c>
-      <c r="AL14" s="31">
-        <v>1449</v>
-      </c>
-      <c r="AM14" s="31">
-        <v>15799</v>
-      </c>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>512</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32">
-        <v>512</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30">
-        <v>2369</v>
-      </c>
-      <c r="I15" s="30">
-        <v>2539</v>
-      </c>
-      <c r="J15" s="30">
-        <v>2447</v>
-      </c>
-      <c r="K15" s="30">
-        <v>29428</v>
-      </c>
-      <c r="L15" s="31">
-        <v>1975</v>
-      </c>
-      <c r="M15" s="31">
-        <v>3751</v>
-      </c>
-      <c r="N15" s="31">
-        <v>2231</v>
-      </c>
-      <c r="O15" s="31">
-        <v>120898</v>
-      </c>
-      <c r="P15" s="30">
-        <v>874</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>1201</v>
-      </c>
-      <c r="R15" s="30">
-        <v>965</v>
-      </c>
-      <c r="S15" s="30">
-        <v>9750</v>
-      </c>
-      <c r="T15" s="31">
-        <v>876</v>
-      </c>
-      <c r="U15" s="31">
-        <v>3773</v>
-      </c>
-      <c r="V15" s="31">
-        <v>1442</v>
-      </c>
-      <c r="W15" s="31">
-        <v>15578</v>
-      </c>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="30">
-        <v>2031</v>
-      </c>
-      <c r="AG15" s="30">
-        <v>2307</v>
-      </c>
-      <c r="AH15" s="30">
-        <v>2100</v>
-      </c>
-      <c r="AI15" s="30">
-        <v>22033</v>
-      </c>
-      <c r="AJ15" s="31">
-        <v>915</v>
-      </c>
-      <c r="AK15" s="31">
-        <v>2238</v>
-      </c>
-      <c r="AL15" s="31">
-        <v>1124</v>
-      </c>
-      <c r="AM15" s="31">
-        <v>12537</v>
-      </c>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-    </row>
-    <row r="17" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25">
+        <v>3102</v>
+      </c>
+      <c r="I7" s="25">
+        <v>3274</v>
+      </c>
+      <c r="J7" s="25">
+        <v>3156</v>
+      </c>
+      <c r="K7" s="25">
+        <v>36445</v>
+      </c>
+      <c r="L7" s="26">
+        <v>1720</v>
+      </c>
+      <c r="M7" s="26">
+        <v>4388</v>
+      </c>
+      <c r="N7" s="26">
+        <v>2331</v>
+      </c>
+      <c r="O7" s="26">
+        <v>122118</v>
+      </c>
+      <c r="P7" s="25">
+        <v>853</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>1285</v>
+      </c>
+      <c r="R7" s="28">
+        <v>967</v>
+      </c>
+      <c r="S7" s="28">
+        <v>9767</v>
+      </c>
+      <c r="T7" s="26">
+        <v>889</v>
+      </c>
+      <c r="U7" s="26">
+        <v>1648</v>
+      </c>
+      <c r="V7" s="26">
+        <v>1024</v>
+      </c>
+      <c r="W7" s="26">
+        <v>11477</v>
+      </c>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="25">
+        <v>2149</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>2332</v>
+      </c>
+      <c r="AH7" s="25">
+        <v>2211</v>
+      </c>
+      <c r="AI7" s="25">
+        <v>23112</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>954</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>2046</v>
+      </c>
+      <c r="AL7" s="26">
+        <v>1113</v>
+      </c>
+      <c r="AM7" s="26">
+        <v>11817</v>
+      </c>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+    </row>
+    <row r="9" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AJ2:AM2"/>
@@ -2219,6 +1399,18 @@
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/priv/statistics/ora_bench_status_1.1.0_std_vm.xlsx
+++ b/priv/statistics/ora_bench_status_1.1.0_std_vm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5165BDF-77B0-4FFF-8057-1BB668A0B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC3992-2152-4149-8AC5-4D34CA6FFFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +233,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -292,7 +308,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,20 +361,21 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -684,7 +701,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,66 +716,66 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="29" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="29" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="29" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="31" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
     </row>
     <row r="2" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -766,66 +783,66 @@
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="29" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="31" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="29" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="31" t="s">
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="29" t="s">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="31" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="33"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="30"/>
     </row>
     <row r="3" spans="1:43" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1002,10 +1019,10 @@
       <c r="Q4" s="25">
         <v>2222</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="34">
         <v>1839</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="34">
         <v>18495</v>
       </c>
       <c r="T4" s="26">
@@ -1026,10 +1043,10 @@
       <c r="Y4" s="25">
         <v>67205</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="33">
         <v>64820</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="33">
         <v>660189</v>
       </c>
       <c r="AB4" s="26">
@@ -1093,7 +1110,7 @@
       <c r="I5" s="25">
         <v>2928</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="33">
         <v>2848</v>
       </c>
       <c r="K5" s="25">
@@ -1108,7 +1125,7 @@
       <c r="N5" s="26">
         <v>2697</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="33">
         <v>126912</v>
       </c>
       <c r="P5" s="25">
@@ -1129,10 +1146,10 @@
       <c r="U5" s="26">
         <v>1566</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="34">
         <v>968</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="34">
         <v>10890</v>
       </c>
       <c r="X5" s="24"/>
@@ -1216,10 +1233,10 @@
       <c r="Q6" s="25">
         <v>1931</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="34">
         <v>1811</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="34">
         <v>18200</v>
       </c>
       <c r="T6" s="26">
@@ -1240,10 +1257,10 @@
       <c r="Y6" s="25">
         <v>66080</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="Z6" s="33">
         <v>64282</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="AA6" s="33">
         <v>654850</v>
       </c>
       <c r="AB6" s="26">
@@ -1307,7 +1324,7 @@
       <c r="I7" s="25">
         <v>3274</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="33">
         <v>3156</v>
       </c>
       <c r="K7" s="25">
@@ -1322,7 +1339,7 @@
       <c r="N7" s="26">
         <v>2331</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="33">
         <v>122118</v>
       </c>
       <c r="P7" s="25">
@@ -1331,10 +1348,10 @@
       <c r="Q7" s="25">
         <v>1285</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="34">
         <v>967</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="34">
         <v>9767</v>
       </c>
       <c r="T7" s="26">
@@ -1389,6 +1406,18 @@
     <row r="9" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AJ2:AM2"/>
@@ -1399,18 +1428,6 @@
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
